--- a/medicine/Psychotrope/Privat-Brauerei_Hohenfelde/Privat-Brauerei_Hohenfelde.xlsx
+++ b/medicine/Psychotrope/Privat-Brauerei_Hohenfelde/Privat-Brauerei_Hohenfelde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privat-Brauerei Hohenfelde est une brasserie à Langenberg, dans le Land de Rhénanie-du-Nord-Westphalie (Allemagne).
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est fondée en 1845 par le bailli royal de Prusse Konrad Hermann Lappmann avec le nom de "Bayerische und Exportbrauerei" sur le domaine "Hohenfelde"[1]. Lappmann embauche un maître brasseur franconien, Johann Dittmann. Une Schwarzbier et une Braunbier sont produites. Dittmann devient plus tard un concurrent de la Brauerei Dittmann, créée en 1867 et disparu en 1974, qui produisait également à Langenberg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est fondée en 1845 par le bailli royal de Prusse Konrad Hermann Lappmann avec le nom de "Bayerische und Exportbrauerei" sur le domaine "Hohenfelde". Lappmann embauche un maître brasseur franconien, Johann Dittmann. Une Schwarzbier et une Braunbier sont produites. Dittmann devient plus tard un concurrent de la Brauerei Dittmann, créée en 1867 et disparu en 1974, qui produisait également à Langenberg.
 En 1861, Lappmann loue sa brasserie, désormais sensiblement agrandie, et se rend dans la province de Saxe en tant que juge. Après sa mort en 1874, et surtout depuis 1881 sous la direction du maître brasseur et plus tard propriétaire Hermann Schütze, la brasserie devient une entreprise importante.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit sous la marque de bière Hohenfelder :
 Bières
